--- a/src/data/reports/CD821.xlsx
+++ b/src/data/reports/CD821.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="313">
   <si>
     <t>Index</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Classification</t>
   </si>
   <si>
+    <t>Classification_genebe</t>
+  </si>
+  <si>
+    <t>HGVS notation</t>
+  </si>
+  <si>
     <t>Chrom</t>
   </si>
   <si>
@@ -103,6 +109,87 @@
     <t>Unnamed: 27</t>
   </si>
   <si>
+    <t>Benign</t>
+  </si>
+  <si>
+    <t>Likely_benign</t>
+  </si>
+  <si>
+    <t>Uncertain_significance</t>
+  </si>
+  <si>
+    <t>XM_011533383.3:c.160_171dupCCGCCGCCGCCG</t>
+  </si>
+  <si>
+    <t>NM_014159.7:c.5885C&gt;T</t>
+  </si>
+  <si>
+    <t>NM_001145662.1:c.490G&gt;A</t>
+  </si>
+  <si>
+    <t>NM_001388492.1:c.138_143dupGCCGCC</t>
+  </si>
+  <si>
+    <t>XM_024454102.1:c.5284A&gt;G</t>
+  </si>
+  <si>
+    <t>NM_004575.3:c.198_200dupCGG</t>
+  </si>
+  <si>
+    <t>NM_020928.2:c.72_74dupCGG</t>
+  </si>
+  <si>
+    <t>NM_001024630.4:c.192_194delGCA</t>
+  </si>
+  <si>
+    <t>XM_017013892.1:c.7996_7998delGCC</t>
+  </si>
+  <si>
+    <t>NM_001280550.2:c.824A&gt;C</t>
+  </si>
+  <si>
+    <t>NM_001280550.2:c.791C&gt;T</t>
+  </si>
+  <si>
+    <t>NM_012238.5:c.239A&gt;G</t>
+  </si>
+  <si>
+    <t>NM_001353345.2:c.14A&gt;C</t>
+  </si>
+  <si>
+    <t>NM_001353345.2:c.23A&gt;C</t>
+  </si>
+  <si>
+    <t>NM_001353345.2:c.26A&gt;C</t>
+  </si>
+  <si>
+    <t>NM_001353345.2:c.29A&gt;C</t>
+  </si>
+  <si>
+    <t>NM_001353345.2:c.32A&gt;C</t>
+  </si>
+  <si>
+    <t>NM_001353345.2:c.2225T&gt;C</t>
+  </si>
+  <si>
+    <t>NM_001130006.2:c.45_47dupCGG</t>
+  </si>
+  <si>
+    <t>NM_000546.6:c.1129A&gt;C</t>
+  </si>
+  <si>
+    <t>NM_001285829.1:c.581T&gt;G</t>
+  </si>
+  <si>
+    <t>XM_005258700.2:c.82_90dupGGCGGCGGC</t>
+  </si>
+  <si>
+    <t>XM_005262153.5:c.2581G&gt;C</t>
+  </si>
+  <si>
+    <t>XM_006724777.3:c.1111A&gt;C</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -547,33 +634,15 @@
     <t>c.1111A&gt;AC</t>
   </si>
   <si>
-    <t>XM_011533383.3:c.160_171dupCCGCCGCCGCCG</t>
-  </si>
-  <si>
     <t>NM_014159.7:c.[5885C&gt;T];[(5885C&gt;T)]</t>
   </si>
   <si>
     <t>NM_001145662.1:c.[490G&gt;A];[=]</t>
   </si>
   <si>
-    <t>NM_001388492.1:c.138_143dupGCCGCC</t>
-  </si>
-  <si>
     <t>XM_024454102.1:c.[5284A&gt;G];[=]</t>
   </si>
   <si>
-    <t>NM_004575.3:c.198_200dupCGG</t>
-  </si>
-  <si>
-    <t>NM_020928.2:c.72_74dupCGG</t>
-  </si>
-  <si>
-    <t>NM_001024630.4:c.192_194delGCA</t>
-  </si>
-  <si>
-    <t>XM_017013892.1:c.7996_7998delGCC</t>
-  </si>
-  <si>
     <t>NM_001280550.2:c.[824A&gt;C];[=]</t>
   </si>
   <si>
@@ -601,16 +670,10 @@
     <t>NM_001353345.2:c.[2225T&gt;C];[=]</t>
   </si>
   <si>
-    <t>NM_001130006.2:c.45_47dupCGG</t>
-  </si>
-  <si>
     <t>NM_000546.6:c.[1129A&gt;C];[=]</t>
   </si>
   <si>
     <t>NM_001285829.1:c.[581T&gt;G];[=]</t>
-  </si>
-  <si>
-    <t>XM_005258700.2:c.82_90dupGGCGGCGGC</t>
   </si>
   <si>
     <t>XM_005262153.5:c.[2581G&gt;C];[(2581G&gt;C)]</t>
@@ -1247,13 +1310,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD25"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,8 +1404,14 @@
       <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1350,242 +1419,266 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2">
         <v>19947267</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>512155008</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>47</v>
       </c>
       <c r="J2" t="s">
         <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="O2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="Q2" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="R2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="S2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="T2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="U2" t="s">
-        <v>203</v>
-      </c>
-      <c r="V2">
+        <v>34</v>
+      </c>
+      <c r="V2" t="s">
+        <v>222</v>
+      </c>
+      <c r="W2" t="s">
+        <v>224</v>
+      </c>
+      <c r="X2">
         <v>1</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>1</v>
       </c>
-      <c r="X2" t="s">
-        <v>221</v>
-      </c>
       <c r="Z2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>271</v>
+        <v>242</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
       <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3">
         <v>47083895</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>539291636</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>560</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
       </c>
       <c r="J3" t="s">
         <v>71</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="O3" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="Q3" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="R3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="S3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="T3" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="U3" t="s">
-        <v>204</v>
-      </c>
-      <c r="V3">
+        <v>206</v>
+      </c>
+      <c r="V3" t="s">
+        <v>223</v>
+      </c>
+      <c r="W3" t="s">
+        <v>225</v>
+      </c>
+      <c r="X3">
         <v>12</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>12</v>
       </c>
-      <c r="X3" t="s">
-        <v>222</v>
-      </c>
       <c r="Z3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB3">
+        <v>243</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD3">
         <v>40</v>
       </c>
-      <c r="AC3" t="s">
-        <v>272</v>
+      <c r="AE3" t="s">
+        <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
       <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4">
         <v>128486108</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>620693849</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>1875</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
       </c>
       <c r="J4" t="s">
         <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="Q4" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="R4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="S4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="T4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="U4" t="s">
-        <v>205</v>
-      </c>
-      <c r="V4">
+        <v>207</v>
+      </c>
+      <c r="V4" t="s">
+        <v>223</v>
+      </c>
+      <c r="W4" t="s">
+        <v>226</v>
+      </c>
+      <c r="X4">
         <v>3</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>2</v>
       </c>
-      <c r="X4" t="s">
-        <v>223</v>
-      </c>
       <c r="Z4" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB4">
+        <v>244</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD4">
         <v>17</v>
       </c>
-      <c r="AC4" t="s">
-        <v>273</v>
+      <c r="AE4" t="s">
+        <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1593,159 +1686,174 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5">
         <v>3074946</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>693733643</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>50</v>
       </c>
       <c r="J5" t="s">
         <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="N5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="Q5" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="R5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="S5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="T5" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>206</v>
-      </c>
-      <c r="V5">
+        <v>37</v>
+      </c>
+      <c r="V5" t="s">
+        <v>222</v>
+      </c>
+      <c r="W5" t="s">
+        <v>227</v>
+      </c>
+      <c r="X5">
         <v>1</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>1</v>
       </c>
-      <c r="X5" t="s">
-        <v>224</v>
-      </c>
       <c r="Z5" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>274</v>
+        <v>245</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6">
         <v>105275794</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>795934491</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>430</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
       </c>
       <c r="J6" t="s">
         <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="Q6" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="R6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="S6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="T6" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="U6" t="s">
-        <v>207</v>
-      </c>
-      <c r="V6">
+        <v>208</v>
+      </c>
+      <c r="V6" t="s">
+        <v>223</v>
+      </c>
+      <c r="W6" t="s">
+        <v>228</v>
+      </c>
+      <c r="X6">
         <v>12</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>9</v>
       </c>
-      <c r="X6" t="s">
-        <v>225</v>
-      </c>
       <c r="Z6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB6">
+        <v>246</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD6">
         <v>16</v>
       </c>
-      <c r="AC6" t="s">
-        <v>275</v>
+      <c r="AE6" t="s">
+        <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1753,76 +1861,82 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7">
         <v>146639306</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>837298003</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
-      </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="Q7" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="R7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="S7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="T7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="U7" t="s">
-        <v>208</v>
-      </c>
-      <c r="V7">
+        <v>39</v>
+      </c>
+      <c r="V7" t="s">
+        <v>222</v>
+      </c>
+      <c r="W7" t="s">
+        <v>229</v>
+      </c>
+      <c r="X7">
         <v>1</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>1</v>
       </c>
-      <c r="X7" t="s">
-        <v>226</v>
-      </c>
       <c r="Z7" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>276</v>
+        <v>247</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1832,74 +1946,80 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8">
         <v>61332327</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>942415288</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="Q8" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="R8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="S8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="T8" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="U8" t="s">
-        <v>209</v>
-      </c>
-      <c r="V8">
+        <v>40</v>
+      </c>
+      <c r="V8" t="s">
+        <v>222</v>
+      </c>
+      <c r="W8" t="s">
+        <v>230</v>
+      </c>
+      <c r="X8">
         <v>1</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>1</v>
       </c>
-      <c r="X8" t="s">
-        <v>227</v>
-      </c>
       <c r="Z8" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>277</v>
+        <v>248</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1907,58 +2027,64 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9">
         <v>45422709</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>1108136618</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>54</v>
       </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>145</v>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
       </c>
       <c r="R9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="S9" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="T9" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="U9" t="s">
-        <v>210</v>
-      </c>
-      <c r="V9">
+        <v>41</v>
+      </c>
+      <c r="V9" t="s">
+        <v>222</v>
+      </c>
+      <c r="W9" t="s">
+        <v>231</v>
+      </c>
+      <c r="X9">
         <v>3</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>2</v>
       </c>
-      <c r="X9" t="s">
-        <v>228</v>
-      </c>
       <c r="Z9" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>278</v>
+        <v>249</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1966,763 +2092,850 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10">
         <v>143865355</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>1536731216</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>146</v>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
       </c>
       <c r="R10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="S10" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="T10" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="U10" t="s">
-        <v>211</v>
-      </c>
-      <c r="V10">
+        <v>42</v>
+      </c>
+      <c r="V10" t="s">
+        <v>222</v>
+      </c>
+      <c r="W10" t="s">
+        <v>232</v>
+      </c>
+      <c r="X10">
         <v>2</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>2</v>
       </c>
-      <c r="X10" t="s">
-        <v>229</v>
-      </c>
       <c r="Z10" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>279</v>
+        <v>250</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11">
         <v>36840593</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>1574845090</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>831</v>
       </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>56</v>
-      </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
         <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="N11" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="Q11" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="R11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="S11" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="T11" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U11" t="s">
-        <v>212</v>
-      </c>
-      <c r="V11">
+        <v>209</v>
+      </c>
+      <c r="V11" t="s">
+        <v>223</v>
+      </c>
+      <c r="W11" t="s">
+        <v>233</v>
+      </c>
+      <c r="X11">
         <v>7</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>7</v>
       </c>
-      <c r="X11" t="s">
-        <v>230</v>
-      </c>
       <c r="Z11" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>280</v>
+        <v>251</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
       <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12">
         <v>36840626</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>1574845123</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>706</v>
       </c>
-      <c r="H12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="Q12" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="R12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="S12" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="T12" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="U12" t="s">
-        <v>212</v>
-      </c>
-      <c r="V12">
+        <v>210</v>
+      </c>
+      <c r="V12" t="s">
+        <v>223</v>
+      </c>
+      <c r="W12" t="s">
+        <v>233</v>
+      </c>
+      <c r="X12">
         <v>7</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>7</v>
       </c>
-      <c r="X12" t="s">
-        <v>230</v>
-      </c>
       <c r="Z12" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB12">
+        <v>251</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD12">
         <v>2</v>
       </c>
-      <c r="AC12" t="s">
-        <v>281</v>
+      <c r="AE12" t="s">
+        <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13">
         <v>67884960</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>1744578185</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>1370</v>
       </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" t="s">
-        <v>58</v>
-      </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
         <v>99</v>
       </c>
       <c r="P13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" t="s">
         <v>128</v>
       </c>
-      <c r="Q13" t="s">
-        <v>143</v>
-      </c>
       <c r="R13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="S13" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="T13" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="U13" t="s">
-        <v>213</v>
-      </c>
-      <c r="V13">
+        <v>211</v>
+      </c>
+      <c r="V13" t="s">
+        <v>223</v>
+      </c>
+      <c r="W13" t="s">
+        <v>234</v>
+      </c>
+      <c r="X13">
         <v>1</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>1</v>
       </c>
-      <c r="X13" t="s">
-        <v>231</v>
-      </c>
       <c r="Z13" t="s">
-        <v>250</v>
+        <v>252</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14">
         <v>121804751</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>2067482336</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>1255</v>
       </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" t="s">
-        <v>59</v>
-      </c>
       <c r="J14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="N14" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Q14" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="R14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="S14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="T14" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="U14" t="s">
-        <v>214</v>
-      </c>
-      <c r="V14">
+        <v>212</v>
+      </c>
+      <c r="V14" t="s">
+        <v>223</v>
+      </c>
+      <c r="W14" t="s">
+        <v>235</v>
+      </c>
+      <c r="X14">
         <v>2</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>1</v>
       </c>
-      <c r="X14" t="s">
-        <v>232</v>
-      </c>
       <c r="Z14" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>282</v>
+        <v>253</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15">
         <v>121804760</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>2067482345</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>1335</v>
       </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>60</v>
-      </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M15" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="N15" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="O15" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="Q15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="S15" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="T15" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="U15" t="s">
-        <v>214</v>
-      </c>
-      <c r="V15">
+        <v>213</v>
+      </c>
+      <c r="V15" t="s">
+        <v>223</v>
+      </c>
+      <c r="W15" t="s">
+        <v>235</v>
+      </c>
+      <c r="X15">
         <v>2</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>1</v>
       </c>
-      <c r="X15" t="s">
-        <v>232</v>
-      </c>
       <c r="Z15" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB15">
+        <v>253</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD15">
         <v>4</v>
       </c>
-      <c r="AC15" t="s">
-        <v>283</v>
+      <c r="AE15" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16">
         <v>121804763</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>2067482348</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>1325</v>
       </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" t="s">
-        <v>61</v>
-      </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M16" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="N16" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="O16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="Q16" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="R16" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="S16" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="T16" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="U16" t="s">
         <v>214</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="s">
+        <v>223</v>
+      </c>
+      <c r="W16" t="s">
+        <v>235</v>
+      </c>
+      <c r="X16">
         <v>2</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>1</v>
-      </c>
-      <c r="X16" t="s">
-        <v>232</v>
       </c>
       <c r="Z16" t="s">
         <v>253</v>
       </c>
-      <c r="AA16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB16">
+      <c r="AB16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD16">
         <v>1</v>
       </c>
-      <c r="AC16" t="s">
-        <v>284</v>
+      <c r="AE16" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:31">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17">
         <v>121804766</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>2067482351</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>1324</v>
       </c>
-      <c r="H17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" t="s">
-        <v>62</v>
-      </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L17" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="M17" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="N17" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="O17" t="s">
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="Q17" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="R17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="S17" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="T17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="U17" t="s">
-        <v>214</v>
-      </c>
-      <c r="V17">
+        <v>215</v>
+      </c>
+      <c r="V17" t="s">
+        <v>223</v>
+      </c>
+      <c r="W17" t="s">
+        <v>235</v>
+      </c>
+      <c r="X17">
         <v>2</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>1</v>
       </c>
-      <c r="X17" t="s">
-        <v>232</v>
-      </c>
       <c r="Z17" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>285</v>
+        <v>253</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:31">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18">
         <v>121804769</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>2067482354</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>1366</v>
       </c>
-      <c r="H18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" t="s">
-        <v>63</v>
-      </c>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="M18" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="N18" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="Q18" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="R18" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="S18" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="T18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U18" t="s">
-        <v>214</v>
-      </c>
-      <c r="V18">
+        <v>216</v>
+      </c>
+      <c r="V18" t="s">
+        <v>223</v>
+      </c>
+      <c r="W18" t="s">
+        <v>235</v>
+      </c>
+      <c r="X18">
         <v>2</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>1</v>
       </c>
-      <c r="X18" t="s">
-        <v>232</v>
-      </c>
       <c r="Z18" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>286</v>
+        <v>253</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:31">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
       <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19">
         <v>121814440</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>2067492025</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>1186</v>
       </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
-        <v>64</v>
-      </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L19" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="M19" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="N19" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="Q19" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="R19" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="S19" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="T19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="U19" t="s">
-        <v>214</v>
-      </c>
-      <c r="V19">
+        <v>217</v>
+      </c>
+      <c r="V19" t="s">
+        <v>223</v>
+      </c>
+      <c r="W19" t="s">
+        <v>235</v>
+      </c>
+      <c r="X19">
         <v>7</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>6</v>
       </c>
-      <c r="X19" t="s">
-        <v>232</v>
-      </c>
       <c r="Z19" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:31">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2730,233 +2943,251 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20">
         <v>11915674</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>2415808671</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s">
-        <v>65</v>
       </c>
       <c r="J20" t="s">
         <v>70</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="M20" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="N20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q20" t="s">
         <v>114</v>
       </c>
-      <c r="O20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P20" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>150</v>
-      </c>
       <c r="R20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="S20" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="T20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U20" t="s">
-        <v>215</v>
-      </c>
-      <c r="V20">
+        <v>52</v>
+      </c>
+      <c r="V20" t="s">
+        <v>222</v>
+      </c>
+      <c r="W20" t="s">
+        <v>236</v>
+      </c>
+      <c r="X20">
         <v>1</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>1</v>
       </c>
-      <c r="X20" t="s">
-        <v>233</v>
-      </c>
       <c r="Z20" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>287</v>
+        <v>254</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:31">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
       <c r="D21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21">
         <v>7669662</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>2503773763</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>1068</v>
       </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>66</v>
-      </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M21" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="N21" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="Q21" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="R21" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="S21" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="T21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U21" t="s">
-        <v>216</v>
-      </c>
-      <c r="V21">
+        <v>218</v>
+      </c>
+      <c r="V21" t="s">
+        <v>223</v>
+      </c>
+      <c r="W21" t="s">
+        <v>237</v>
+      </c>
+      <c r="X21">
         <v>11</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>10</v>
       </c>
-      <c r="X21" t="s">
-        <v>234</v>
-      </c>
       <c r="Z21" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB21">
+        <v>255</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD21">
         <v>4</v>
       </c>
-      <c r="AC21" t="s">
-        <v>288</v>
+      <c r="AE21" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:31">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22">
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22">
         <v>33301939</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>2693615747</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>1154</v>
       </c>
-      <c r="H22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" t="s">
-        <v>67</v>
-      </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L22" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M22" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="N22" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="Q22" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="R22" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="S22" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="T22" t="s">
         <v>202</v>
       </c>
       <c r="U22" t="s">
-        <v>217</v>
-      </c>
-      <c r="V22">
+        <v>219</v>
+      </c>
+      <c r="V22" t="s">
+        <v>223</v>
+      </c>
+      <c r="W22" t="s">
+        <v>238</v>
+      </c>
+      <c r="X22">
         <v>1</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>1</v>
       </c>
-      <c r="X22" t="s">
-        <v>235</v>
-      </c>
       <c r="Z22" t="s">
-        <v>259</v>
+        <v>256</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:31">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2964,233 +3195,251 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23">
         <v>55279519</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>2715593327</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>7</v>
       </c>
-      <c r="H23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M23" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="N23" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="O23" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Q23" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="R23" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="S23" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="T23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="U23" t="s">
-        <v>218</v>
-      </c>
-      <c r="V23">
+        <v>55</v>
+      </c>
+      <c r="V23" t="s">
+        <v>222</v>
+      </c>
+      <c r="W23" t="s">
+        <v>239</v>
+      </c>
+      <c r="X23">
         <v>2</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>1</v>
       </c>
-      <c r="X23" t="s">
-        <v>236</v>
-      </c>
       <c r="Z23" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>289</v>
+        <v>257</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:31">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24">
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24">
         <v>77682471</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>2959625561</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>242</v>
-      </c>
-      <c r="H24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" t="s">
-        <v>48</v>
       </c>
       <c r="J24" t="s">
         <v>70</v>
       </c>
       <c r="K24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M24" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="N24" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Q24" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="R24" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="S24" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="T24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="U24" t="s">
-        <v>219</v>
-      </c>
-      <c r="V24">
+        <v>220</v>
+      </c>
+      <c r="V24" t="s">
+        <v>223</v>
+      </c>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24">
         <v>9</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>9</v>
       </c>
-      <c r="X24" t="s">
-        <v>237</v>
-      </c>
       <c r="Z24" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>290</v>
+        <v>258</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:31">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
       <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25">
         <v>130013883</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>3011956973</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>370</v>
       </c>
-      <c r="H25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" t="s">
-        <v>69</v>
-      </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="M25" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="N25" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="Q25" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="R25" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="S25" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="T25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="U25" t="s">
-        <v>220</v>
-      </c>
-      <c r="V25">
+        <v>221</v>
+      </c>
+      <c r="V25" t="s">
+        <v>223</v>
+      </c>
+      <c r="W25" t="s">
+        <v>241</v>
+      </c>
+      <c r="X25">
         <v>4</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>3</v>
       </c>
-      <c r="X25" t="s">
-        <v>238</v>
-      </c>
       <c r="Z25" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB25">
-        <v>2</v>
+        <v>259</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>283</v>
       </c>
       <c r="AC25" t="s">
         <v>291</v>
+      </c>
+      <c r="AD25">
+        <v>2</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
